--- a/task.xlsx
+++ b/task.xlsx
@@ -1,22 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="0" yWindow="2445" windowWidth="15360" windowHeight="6660"/>
   </bookViews>
   <sheets>
     <sheet name="task" sheetId="1" r:id="rId1"/>
     <sheet name="dashboard" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="122211"/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="43">
   <si>
     <t>team</t>
   </si>
@@ -48,12 +48,6 @@
     <t>statusAfter</t>
   </si>
   <si>
-    <t>Cài đặt môi trường phát triển thủ tục Kiểm dịch thực vật</t>
-  </si>
-  <si>
-    <t>Nâng cấp tính năng thủ tục Kiểm dịch thực vật</t>
-  </si>
-  <si>
     <t>19/11/2016</t>
   </si>
   <si>
@@ -63,40 +57,94 @@
     <t>22/11/2016</t>
   </si>
   <si>
-    <t>Support</t>
-  </si>
-  <si>
     <t>Code</t>
   </si>
   <si>
-    <t>Report</t>
-  </si>
-  <si>
-    <t>Document</t>
-  </si>
-  <si>
     <t>Execute</t>
   </si>
   <si>
     <t>START_WORKING</t>
   </si>
   <si>
-    <t>INVALIDATE</t>
-  </si>
-  <si>
     <t>VTICT_VA_13001_HQMC (Change Management)</t>
   </si>
   <si>
     <t>Nov 21, 2016 - Dec 24, 2016</t>
   </si>
   <si>
-    <t xml:space="preserve">Hoàn thiện fix lỗi ATTT FCAP   </t>
-  </si>
-  <si>
     <t>ID</t>
   </si>
   <si>
     <t>STT</t>
+  </si>
+  <si>
+    <t>29/11/2016</t>
+  </si>
+  <si>
+    <t>30/11/2016</t>
+  </si>
+  <si>
+    <t>03/12/2016</t>
+  </si>
+  <si>
+    <t>02/12/2016</t>
+  </si>
+  <si>
+    <t>01/12/2016</t>
+  </si>
+  <si>
+    <t>28/11/2016</t>
+  </si>
+  <si>
+    <t>25/11/2016</t>
+  </si>
+  <si>
+    <t>24/11/2016</t>
+  </si>
+  <si>
+    <t>23/11/2016</t>
+  </si>
+  <si>
+    <t>Tìm hiểu giải pháp chuyển đổi CSDL Sql server sang Oracle</t>
+  </si>
+  <si>
+    <t>Xây dựng trigger trên CSDL Sql để lưu thông tin tác động</t>
+  </si>
+  <si>
+    <t>Xây dựng core kết nối Sql và Oracle</t>
+  </si>
+  <si>
+    <t>Xây dựng windows service tiến hành chuyển đổi CSDL</t>
+  </si>
+  <si>
+    <t>Fixbug datatype khi tiến hành chuyển đổi CSDL</t>
+  </si>
+  <si>
+    <t>8</t>
+  </si>
+  <si>
+    <t>Deploy lên server test Hải quan phục vụ demo Cục kiểm dịch thực vật</t>
+  </si>
+  <si>
+    <t>Nghiên cứu tài liệu quy trình thủ tục Kiểm dịch thực vật</t>
+  </si>
+  <si>
+    <t>Fixbug lỗi service kết nối với BNN thủ tục kiểm dịch thực vật</t>
+  </si>
+  <si>
+    <t>Nâng cấp tính năng phục vụ mở rộng triển khai cho thủ tục Kiểm dịch thực vật</t>
+  </si>
+  <si>
+    <t>Nâng cấp tính năng tiếp nhận thông tin phí nhiều lần</t>
+  </si>
+  <si>
+    <t>Chỉnh sửa chức năng in ấn giấy phép và giấy tạm cấp</t>
+  </si>
+  <si>
+    <t>Fixbug các chức năng sau chỉnh sửa</t>
+  </si>
+  <si>
+    <t>COMPLETE</t>
   </si>
 </sst>
 </file>
@@ -155,18 +203,20 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -468,138 +518,423 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I4"/>
+  <dimension ref="A2:I19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="51.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.85546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="16.140625" customWidth="1"/>
-    <col min="5" max="5" width="10" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.7109375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="12.42578125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="19.5703125" customWidth="1"/>
-    <col min="9" max="9" width="18" customWidth="1"/>
+    <col min="1" max="1" width="9.140625" style="4"/>
+    <col min="2" max="2" width="51.28515625" style="4" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="24.7109375" style="4" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16.140625" style="4" customWidth="1"/>
+    <col min="5" max="5" width="10" style="4" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.7109375" style="4" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.42578125" style="4" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="19.5703125" style="4" customWidth="1"/>
+    <col min="9" max="9" width="18" style="4" customWidth="1"/>
+    <col min="10" max="16384" width="9.140625" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="2" t="s">
+    <row r="2" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A3" s="5">
+        <v>1</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="H7" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="I7" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A8" s="3">
+        <v>4</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="C8" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="D8" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="E8" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="F8" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="G8" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="H8" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="I8" s="3" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A9" s="3">
+        <v>5</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="C9" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="D9" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="E9" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="F9" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="G9" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="H9" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="I9" s="3" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A10" s="3">
+        <v>6</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="C10" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="D10" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="E10" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="F10" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="G10" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="H10" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="I10" s="3" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A11" s="3">
+        <v>7</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="C11" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="D11" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="E11" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="F11" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="G11" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="H11" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="I11" s="3" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A12" s="3">
+        <v>8</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="C12" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="D12" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="E12" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="F12" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="G12" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="H12" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="I12" s="3" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A13" s="3">
+        <v>9</v>
+      </c>
+      <c r="B13" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="C13" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="D13" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="B1" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="H1" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="I1" s="2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A2" s="3">
-        <v>1</v>
-      </c>
-      <c r="B2" s="3" t="s">
+      <c r="E13" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="F13" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="G13" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="H13" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="I13" s="3" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A14" s="3">
         <v>10</v>
       </c>
-      <c r="C2" s="3">
-        <v>0</v>
-      </c>
-      <c r="D2" s="3" t="s">
+      <c r="B14" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="C14" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="D14" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="E14" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="F14" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="G14" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="H14" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="I14" s="3" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A15" s="3">
+        <v>11</v>
+      </c>
+      <c r="B15" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="C15" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="D15" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="E15" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="F15" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="G15" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="H15" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="I15" s="3" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A16" s="3">
         <v>12</v>
       </c>
-      <c r="E2" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="F2" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="G2" s="3">
-        <v>0</v>
-      </c>
-      <c r="H2" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="I2" s="3" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A3" s="3">
-        <v>2</v>
-      </c>
-      <c r="B3" s="3" t="s">
+      <c r="B16" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="C16" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="D16" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="E16" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="F16" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="G16" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="H16" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="I16" s="3" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A17" s="3">
+        <v>13</v>
+      </c>
+      <c r="B17" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="C17" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="D17" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="E17" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="F17" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="G17" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="H17" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="I17" s="3" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A18" s="3">
+        <v>14</v>
+      </c>
+      <c r="B18" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="C18" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="D18" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="C3" s="3">
-        <v>0</v>
-      </c>
-      <c r="D3" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="E3" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="F3" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="G3" s="3">
-        <v>0</v>
-      </c>
-      <c r="H3" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="I3" s="3" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A4" s="3">
-        <v>3</v>
-      </c>
-      <c r="B4" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="C4" s="3">
-        <v>0</v>
-      </c>
-      <c r="D4" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="E4" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="F4" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="G4" s="3">
-        <v>0</v>
-      </c>
-      <c r="H4" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="I4" s="3" t="s">
-        <v>21</v>
+      <c r="E18" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="F18" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="G18" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="H18" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="I18" s="3" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A19" s="3">
+        <v>15</v>
+      </c>
+      <c r="B19" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="C19" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="D19" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E19" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="F19" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="G19" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="H19" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="I19" s="3" t="s">
+        <v>42</v>
       </c>
     </row>
   </sheetData>
@@ -613,57 +948,59 @@
   <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+      <selection sqref="A1:XFD2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="43.85546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="30.140625" customWidth="1"/>
+    <col min="1" max="1" width="9.140625" style="4"/>
+    <col min="2" max="2" width="43.85546875" style="4" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="30.140625" style="4" customWidth="1"/>
+    <col min="4" max="16384" width="9.140625" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="B1" s="2" t="s">
+    <row r="1" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" s="4">
+      <c r="A2" s="5">
         <v>1</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" s="4">
+      <c r="A3" s="5">
         <v>2</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" s="4">
+      <c r="A4" s="5">
         <v>3</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
     </row>
   </sheetData>
